--- a/data/trans_dic/P17_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con salud mental autopercibida regular o mala</t>
+          <t>Población con salud mental autopercibida regular o mala (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>22,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,86%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>35,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>21,37%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>28,93%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>25,14%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>29,54%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,38; 21,97</t>
+          <t>6,3; 29,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,82; 42,92</t>
+          <t>8,28; 34,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,62; 28,58</t>
+          <t>9,07; 36,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,33; 26,76</t>
+          <t>7,68; 36,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,0; 36,14</t>
+          <t>5,99; 33,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,44; 27,26</t>
+          <t>18,2; 42,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,88; 40,6</t>
+          <t>13,49; 37,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,66; 65,23</t>
+          <t>23,24; 50,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,75; 27,55</t>
+          <t>17,05; 44,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,88; 34,43</t>
+          <t>24,2; 59,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,45; 32,81</t>
+          <t>15,65; 34,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,18; 46,79</t>
+          <t>13,56; 29,87</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>18,96; 39,84</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>15,49; 35,24</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>17,13; 46,08</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>21,32%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>10,65%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>14,85%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>19,32%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,62; 23,96</t>
+          <t>11,6; 32,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 8,65</t>
+          <t>3,47; 11,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 15,64</t>
+          <t>4,18; 13,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,33; 14,42</t>
+          <t>6,72; 17,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,41; 29,18</t>
+          <t>12,03; 35,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,52; 16,79</t>
+          <t>17,65; 29,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,68; 19,62</t>
+          <t>6,02; 14,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,18; 23,17</t>
+          <t>9,34; 19,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,43; 24,12</t>
+          <t>14,17; 25,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,51; 11,39</t>
+          <t>14,12; 25,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,68; 15,72</t>
+          <t>16,79; 29,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,48; 17,7</t>
+          <t>5,71; 11,78</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>7,63; 14,08</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11,44; 19,2</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>14,76; 27,63</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>10,42%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>10,9%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>11,43%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 11,93</t>
+          <t>3,32; 12,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 7,67</t>
+          <t>1,9; 9,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 11,81</t>
+          <t>1,86; 10,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,45; 15,77</t>
+          <t>4,04; 14,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,06; 25,21</t>
+          <t>4,49; 15,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 12,14</t>
+          <t>11,49; 23,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,92; 22,11</t>
+          <t>2,94; 10,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,62; 22,12</t>
+          <t>10,09; 20,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,95; 17,88</t>
+          <t>8,09; 18,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,89</t>
+          <t>9,07; 19,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,84; 15,76</t>
+          <t>8,59; 16,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,1; 17,38</t>
+          <t>3,21; 8,47</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,56; 14,44</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>7,61; 14,49</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>8,09; 15,46</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,28; 16,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 13,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,78; 13,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,88; 14,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,03; 26,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,77; 14,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,76; 21,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,33; 30,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,61; 20,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,8; 16,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 21,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14,02%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11,46%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15,63%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>21,29%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,99%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,16%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,14%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>21,08%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>13,08%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>14,87%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>18,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9,97; 22,73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,82; 11,13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,78; 12,11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,98; 15,32</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11,16; 24,4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17,23; 25,83</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7,38; 13,29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13,91; 21,52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14,56; 22,48</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16,57; 27,53</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14,94; 21,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 10,93</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>10,79; 15,67</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>12,22; 17,63</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>15,05; 22,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud mental autopercibida regular o mala (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16615</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18742</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>23305</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23764</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>32356</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>34897</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>32974</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>40629</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>35181</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>83334</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>51512</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>51715</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>63934</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>58945</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>115690</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6508; 30056</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8243; 34734</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9562; 38414</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8762; 41715</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10646; 59827</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21446; 50441</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19223; 53340</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>26841; 57936</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20522; 53266</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>51779; 128213</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>34608; 77142</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>32803; 72269</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>41886; 88035</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>36319; 82638</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>67090; 180466</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>69375</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>28679</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>28234</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>43790</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>100106</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>90675</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>45180</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>52187</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>71261</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>95250</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>160050</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>73859</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>80421</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>115052</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>195356</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>42057; 118644</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14883; 49569</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15718; 49139</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26832; 70479</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>62146; 185103</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>68505; 116139</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>27976; 68908</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>35405; 74159</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>53158; 96474</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>69870; 128553</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>126025; 219816</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>51050; 105344</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>57616; 106354</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>88618; 148758</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>149283; 279458</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19412</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15344</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14167</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22840</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>31250</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>58692</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25284</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>51165</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>42872</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>54588</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>78104</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>40628</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>65332</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>65712</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>85838</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9483; 37079</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6321; 32681</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5265; 30014</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11124; 39879</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15876; 54100</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>41314; 83989</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12612; 44917</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>34781; 71229</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26494; 61731</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>36072; 78145</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>55421; 103599</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24475; 64510</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>47386; 90543</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>45882; 87344</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>60756; 116106</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>105402</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>62764</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>65706</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>90394</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>163712</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>184264</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>103439</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>143981</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>149315</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>233172</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>289667</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>166203</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>209687</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>239709</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>396884</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>74948; 170885</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>41556; 95919</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>44184; 92557</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>62980; 120869</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>116896; 255572</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>149096; 223553</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>76370; 137607</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>116694; 180579</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>119837; 185032</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>183255; 304528</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>241677; 346578</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>129404; 207336</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>172969; 251151</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>196963; 284155</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>324233; 491130</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
